--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36251.02004706854</v>
+        <v>28541.25684148535</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33969154.61612364</v>
+        <v>33937088.13219456</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10662833.79977381</v>
+        <v>10494200.71426642</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3546037.430427155</v>
+        <v>3629032.849271125</v>
       </c>
     </row>
     <row r="11">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="D8" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.262548922260277</v>
+        <v>104.8891084057992</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="C9" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3.262548922260277</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>47.28363298334746</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>91.3274798296351</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.262548922260277</v>
+        <v>13.56162857616409</v>
       </c>
       <c r="S10" t="n">
-        <v>2.873653090726851</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>29.12034060099202</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>213.5382021707748</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1533,19 +1533,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>118.3474735769326</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>181.9704520135236</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>208.3874263602942</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9677036253037</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>118.3474735769326</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>185.0832217507338</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>352.7455243585774</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>183.5450860918226</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2055,7 +2055,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>183.2322419346985</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>120.2587457220082</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>184.6027376428092</v>
+        <v>131.2524585223747</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.55349484583913</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2256,10 +2256,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>281.7256967185057</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2323,13 +2323,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>328.5107569703947</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -2371,7 +2371,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -2380,7 +2380,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>106.6136090086734</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>123.7223080218413</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
@@ -2496,7 +2496,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>170.3034090720313</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>163.6123473503224</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>275.1106372348596</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>167.4714298264574</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2778,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>129.6684562484756</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>213.741627116086</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>149.6157531058523</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2961,7 +2961,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>43.27232368849771</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>170.3034090720304</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
@@ -3094,10 +3094,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>401.5266111030789</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>156.1674052448249</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>88.47726657460581</v>
       </c>
       <c r="C34" t="n">
-        <v>146.3917356253861</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3207,7 +3207,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>400.252172551426</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -3280,10 +3280,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>83.23686834062258</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>89.30668535812342</v>
+        <v>81.59770678851453</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.0937685836068</v>
@@ -3444,7 +3444,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>179.1735387309199</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>7.722803593220153</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>263.2410188328151</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>210.1418397505084</v>
+        <v>223.0595462692143</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3900,19 +3900,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>93.00664472099429</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>7.722803593220153</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>233.6038976470419</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>149.6157531058523</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258614</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>93.00664472099429</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.459187765282972</v>
+        <v>235.7620855184067</v>
       </c>
       <c r="C8" t="n">
-        <v>6.459187765282972</v>
+        <v>115.475307192689</v>
       </c>
       <c r="D8" t="n">
-        <v>3.55650787565989</v>
+        <v>115.475307192689</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.526712843396846</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.526712843396846</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.526712843396846</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.526712843396846</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2610039137808222</v>
+        <v>23.57954741585565</v>
       </c>
       <c r="J8" t="n">
-        <v>1.160310701713751</v>
+        <v>55.41632306558017</v>
       </c>
       <c r="K8" t="n">
-        <v>2.508138455589632</v>
+        <v>103.1313969318067</v>
       </c>
       <c r="L8" t="n">
-        <v>4.180237967355348</v>
+        <v>162.326165318309</v>
       </c>
       <c r="M8" t="n">
-        <v>6.040770853278587</v>
+        <v>228.1917507590924</v>
       </c>
       <c r="N8" t="n">
-        <v>7.931409106423311</v>
+        <v>295.1231102326572</v>
       </c>
       <c r="O8" t="n">
-        <v>9.716685196678942</v>
+        <v>358.3244950336413</v>
       </c>
       <c r="P8" t="n">
-        <v>11.24037703589</v>
+        <v>412.2654147455657</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.38460615143388</v>
+        <v>452.7727990244998</v>
       </c>
       <c r="R8" t="n">
-        <v>13.05019568904111</v>
+        <v>476.3356421698422</v>
       </c>
       <c r="S8" t="n">
-        <v>13.05019568904111</v>
+        <v>476.3356421698422</v>
       </c>
       <c r="T8" t="n">
-        <v>13.05019568904111</v>
+        <v>476.3356421698422</v>
       </c>
       <c r="U8" t="n">
-        <v>13.05019568904111</v>
+        <v>356.0488638441245</v>
       </c>
       <c r="V8" t="n">
-        <v>13.05019568904111</v>
+        <v>356.0488638441245</v>
       </c>
       <c r="W8" t="n">
-        <v>13.05019568904111</v>
+        <v>356.0488638441245</v>
       </c>
       <c r="X8" t="n">
-        <v>9.75469172716204</v>
+        <v>356.0488638441245</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.459187765282972</v>
+        <v>356.0488638441245</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.459187765282972</v>
+        <v>188.000840080682</v>
       </c>
       <c r="C9" t="n">
-        <v>3.163683803403904</v>
+        <v>188.000840080682</v>
       </c>
       <c r="D9" t="n">
-        <v>3.163683803403904</v>
+        <v>92.91055122723523</v>
       </c>
       <c r="E9" t="n">
-        <v>3.163683803403904</v>
+        <v>92.91055122723523</v>
       </c>
       <c r="F9" t="n">
-        <v>3.163683803403904</v>
+        <v>9.526712843396846</v>
       </c>
       <c r="G9" t="n">
-        <v>3.163683803403904</v>
+        <v>9.526712843396846</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.526712843396846</v>
       </c>
       <c r="I9" t="n">
-        <v>3.490927346818497</v>
+        <v>42.50045791160437</v>
       </c>
       <c r="J9" t="n">
-        <v>4.026548308843082</v>
+        <v>61.46222338483257</v>
       </c>
       <c r="K9" t="n">
-        <v>4.942009845394733</v>
+        <v>93.8709007641484</v>
       </c>
       <c r="L9" t="n">
-        <v>6.172960856258996</v>
+        <v>137.4483669798376</v>
       </c>
       <c r="M9" t="n">
-        <v>7.60942262572932</v>
+        <v>188.3012146372533</v>
       </c>
       <c r="N9" t="n">
-        <v>9.083903263912129</v>
+        <v>240.49998585479</v>
       </c>
       <c r="O9" t="n">
-        <v>10.43276498467475</v>
+        <v>288.2516636611226</v>
       </c>
       <c r="P9" t="n">
-        <v>11.51534543333667</v>
+        <v>326.5765949629845</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.69820412233483</v>
+        <v>358.4425707328063</v>
       </c>
       <c r="R9" t="n">
-        <v>13.05019568904111</v>
+        <v>476.3356421698422</v>
       </c>
       <c r="S9" t="n">
-        <v>9.75469172716204</v>
+        <v>476.3356421698422</v>
       </c>
       <c r="T9" t="n">
-        <v>9.75469172716204</v>
+        <v>476.3356421698422</v>
       </c>
       <c r="U9" t="n">
-        <v>9.75469172716204</v>
+        <v>476.3356421698422</v>
       </c>
       <c r="V9" t="n">
-        <v>6.459187765282972</v>
+        <v>356.0488638441245</v>
       </c>
       <c r="W9" t="n">
-        <v>6.459187765282972</v>
+        <v>308.2876184063998</v>
       </c>
       <c r="X9" t="n">
-        <v>6.459187765282972</v>
+        <v>308.2876184063998</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.459187765282972</v>
+        <v>308.2876184063998</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2610039137808222</v>
+        <v>222.0634707950086</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2610039137808222</v>
+        <v>101.7766924692909</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2610039137808222</v>
+        <v>101.7766924692909</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2610039137808222</v>
+        <v>101.7766924692909</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.526712843396846</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.526712843396846</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.526712843396846</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2610039137808222</v>
+        <v>9.526712843396846</v>
       </c>
       <c r="J10" t="n">
-        <v>3.490927346818497</v>
+        <v>108.0024003011149</v>
       </c>
       <c r="K10" t="n">
-        <v>4.04313012659984</v>
+        <v>127.5511863760667</v>
       </c>
       <c r="L10" t="n">
-        <v>4.749759567956967</v>
+        <v>152.5669021405238</v>
       </c>
       <c r="M10" t="n">
-        <v>7.97968300099464</v>
+        <v>178.9424669519787</v>
       </c>
       <c r="N10" t="n">
-        <v>8.707009244504762</v>
+        <v>296.8355383890147</v>
       </c>
       <c r="O10" t="n">
-        <v>9.378812751550171</v>
+        <v>414.7286098260507</v>
       </c>
       <c r="P10" t="n">
-        <v>9.953656709469653</v>
+        <v>462.2461375895307</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05019568904111</v>
+        <v>476.3356421698422</v>
       </c>
       <c r="R10" t="n">
-        <v>9.75469172716204</v>
+        <v>462.6370274464442</v>
       </c>
       <c r="S10" t="n">
-        <v>6.852011837538958</v>
+        <v>342.3502491207264</v>
       </c>
       <c r="T10" t="n">
-        <v>6.852011837538958</v>
+        <v>342.3502491207264</v>
       </c>
       <c r="U10" t="n">
-        <v>3.55650787565989</v>
+        <v>342.3502491207264</v>
       </c>
       <c r="V10" t="n">
-        <v>0.2610039137808222</v>
+        <v>342.3502491207264</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2610039137808222</v>
+        <v>342.3502491207264</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2610039137808222</v>
+        <v>342.3502491207264</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2610039137808222</v>
+        <v>342.3502491207264</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1173.712709371907</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="C11" t="n">
-        <v>1173.712709371907</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="D11" t="n">
-        <v>1173.712709371907</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
         <v>1463.013992431967</v>
@@ -5059,7 +5059,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792596</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371907</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="Y11" t="n">
-        <v>1173.712709371907</v>
+        <v>662.4043965773309</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,25 +5111,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.6552262893761</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C13" t="n">
-        <v>299.0935147726011</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="D13" t="n">
-        <v>179.5506121696388</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E13" t="n">
-        <v>179.5506121696388</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,19 +5205,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M13" t="n">
-        <v>1272.302332591134</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N13" t="n">
-        <v>1399.801244395024</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1789.845277467981</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1502.889769338411</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1230.863364924703</v>
       </c>
       <c r="X13" t="n">
-        <v>890.893515694255</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083632</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>701.7439652528259</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C14" t="n">
-        <v>701.7439652528259</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D14" t="n">
-        <v>701.7439652528259</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E14" t="n">
-        <v>701.7439652528259</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>701.7439652528259</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1484.630179849397</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.32965943808</v>
+        <v>1065.487716428707</v>
       </c>
       <c r="Y14" t="n">
-        <v>1128.043535737734</v>
+        <v>657.2015927283607</v>
       </c>
     </row>
     <row r="15">
@@ -5336,37 +5336,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.6552262893761</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C16" t="n">
-        <v>299.0935147726011</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D16" t="n">
-        <v>179.5506121696388</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E16" t="n">
-        <v>179.5506121696388</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F16" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G16" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5442,19 +5442,19 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>828.1746199579898</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180194</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774551</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X16" t="n">
-        <v>890.893515694255</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083632</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1934.028006962829</v>
+        <v>1236.792598174392</v>
       </c>
       <c r="C17" t="n">
-        <v>1495.885534146252</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D17" t="n">
-        <v>1059.975749320697</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E17" t="n">
-        <v>1059.975749320697</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F17" t="n">
-        <v>632.1083197299045</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G17" t="n">
-        <v>232.6056284093816</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001354</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
@@ -5533,7 +5533,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447737</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X17" t="n">
-        <v>2360.327577447737</v>
+        <v>1236.792598174392</v>
       </c>
       <c r="Y17" t="n">
-        <v>2360.327577447737</v>
+        <v>1236.792598174392</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235861</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
@@ -5621,7 +5621,7 @@
         <v>1676.651116233592</v>
       </c>
       <c r="S18" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T18" t="n">
         <v>1505.938530508979</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>528.8193777246577</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C19" t="n">
-        <v>356.2576662078826</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D19" t="n">
-        <v>356.2576662078826</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E19" t="n">
         <v>356.2576662078826</v>
@@ -5667,31 +5667,31 @@
         <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>733.4227107706869</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M19" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N19" t="n">
-        <v>1887.361501150536</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O19" t="n">
-        <v>2005.127382498297</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T19" t="n">
-        <v>2030.817966290659</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U19" t="n">
-        <v>1752.431334339402</v>
+        <v>1937.514407000715</v>
       </c>
       <c r="V19" t="n">
-        <v>1465.475826209833</v>
+        <v>1650.558898871145</v>
       </c>
       <c r="W19" t="n">
-        <v>1193.449421796124</v>
+        <v>1529.085418343864</v>
       </c>
       <c r="X19" t="n">
-        <v>948.0576671295366</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y19" t="n">
-        <v>720.6379964436449</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1107.7262209515</v>
+        <v>449.5063439367359</v>
       </c>
       <c r="C20" t="n">
-        <v>669.5837481349236</v>
+        <v>449.5063439367359</v>
       </c>
       <c r="D20" t="n">
-        <v>233.673963309368</v>
+        <v>449.5063439367359</v>
       </c>
       <c r="E20" t="n">
-        <v>233.673963309368</v>
+        <v>449.5063439367359</v>
       </c>
       <c r="F20" t="n">
-        <v>233.673963309368</v>
+        <v>449.5063439367359</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J20" t="n">
         <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>1526.868684372189</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W20" t="n">
-        <v>1526.868684372189</v>
+        <v>1703.23450154268</v>
       </c>
       <c r="X20" t="n">
-        <v>1107.7262209515</v>
+        <v>1284.09203812199</v>
       </c>
       <c r="Y20" t="n">
-        <v>1107.7262209515</v>
+        <v>875.8059144216437</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.291841223631</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7301297068562</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M22" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N22" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774551</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X22" t="n">
-        <v>1136.285270360843</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y22" t="n">
-        <v>1136.285270360843</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1486.402314586987</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="C23" t="n">
-        <v>1048.25984177041</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D23" t="n">
-        <v>1048.25984177041</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E23" t="n">
-        <v>1048.25984177041</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F23" t="n">
         <v>716.4307943255671</v>
@@ -5986,16 +5986,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6019,22 +6019,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>1486.402314586987</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W23" t="n">
-        <v>1486.402314586987</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="X23" t="n">
-        <v>1486.402314586987</v>
+        <v>1590.483051967699</v>
       </c>
       <c r="Y23" t="n">
-        <v>1486.402314586987</v>
+        <v>1590.483051967699</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.291841223631</v>
+        <v>977.4615289265257</v>
       </c>
       <c r="C25" t="n">
-        <v>919.7301297068562</v>
+        <v>804.8998174097507</v>
       </c>
       <c r="D25" t="n">
-        <v>753.852136908379</v>
+        <v>639.0218246112734</v>
       </c>
       <c r="E25" t="n">
-        <v>584.0941331591162</v>
+        <v>469.2638208620106</v>
       </c>
       <c r="F25" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895474</v>
@@ -6150,22 +6150,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>413.3628026016839</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M25" t="n">
-        <v>997.5438780199987</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N25" t="n">
-        <v>1567.301592981533</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O25" t="n">
-        <v>2104.736723555076</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P25" t="n">
-        <v>2205.505779732759</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6177,22 +6177,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T25" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>2215.901038951972</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V25" t="n">
-        <v>1928.945530822402</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W25" t="n">
-        <v>1756.921885295098</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.53013062851</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.110459942618</v>
+        <v>1169.280147645513</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1782.900983623584</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="C26" t="n">
-        <v>1344.758510807007</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="D26" t="n">
-        <v>908.8487259814518</v>
+        <v>1309.563221239917</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
         <v>1131.58869045549</v>
@@ -6256,22 +6256,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2060.790516184048</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V26" t="n">
-        <v>1782.900983623584</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W26" t="n">
-        <v>1782.900983623584</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="X26" t="n">
-        <v>1782.900983623584</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="Y26" t="n">
-        <v>1782.900983623584</v>
+        <v>1745.473006065473</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030332</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
         <v>79.1492015823585</v>
@@ -6347,10 +6347,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1088.893190137621</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C28" t="n">
-        <v>919.7301297068562</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D28" t="n">
-        <v>753.852136908379</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E28" t="n">
-        <v>584.0941331591162</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F28" t="n">
-        <v>407.3870791208724</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270317</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W28" t="n">
-        <v>1280.711808856609</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.711808856609</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.711808856609</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>932.3314277761591</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C29" t="n">
-        <v>932.3314277761591</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D29" t="n">
-        <v>932.3314277761591</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>932.3314277761591</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G29" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
         <v>1775.969506973259</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U29" t="n">
-        <v>2108.089956131646</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V29" t="n">
-        <v>1745.473006065472</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W29" t="n">
-        <v>1340.617551476506</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X29" t="n">
-        <v>1340.617551476506</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y29" t="n">
-        <v>932.3314277761591</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
         <v>341.0245550495863</v>
@@ -6533,7 +6533,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H30" t="n">
         <v>47.20655154895473</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.291841223631</v>
+        <v>959.2942050525569</v>
       </c>
       <c r="C31" t="n">
-        <v>919.7301297068562</v>
+        <v>786.7324935357818</v>
       </c>
       <c r="D31" t="n">
-        <v>753.852136908379</v>
+        <v>620.8545007373045</v>
       </c>
       <c r="E31" t="n">
-        <v>584.0941331591162</v>
+        <v>451.0964969880418</v>
       </c>
       <c r="F31" t="n">
         <v>407.3870791208724</v>
@@ -6627,19 +6627,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>326.783117436994</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M31" t="n">
-        <v>910.9641928553087</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N31" t="n">
-        <v>1480.721907816843</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O31" t="n">
-        <v>2005.127382498298</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6654,19 +6654,19 @@
         <v>2215.901038951971</v>
       </c>
       <c r="U31" t="n">
-        <v>2215.901038951971</v>
+        <v>1937.514407000714</v>
       </c>
       <c r="V31" t="n">
-        <v>1928.945530822401</v>
+        <v>1650.558898871144</v>
       </c>
       <c r="W31" t="n">
-        <v>1756.921885295098</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.53013062851</v>
+        <v>1378.532494457436</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.110459942618</v>
+        <v>1151.112823771544</v>
       </c>
     </row>
     <row r="32">
@@ -6697,52 +6697,52 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R32" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
-        <v>1526.868684372189</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W32" t="n">
-        <v>1122.013229783223</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X32" t="n">
-        <v>716.4307943255671</v>
+        <v>874.1756481082185</v>
       </c>
       <c r="Y32" t="n">
         <v>716.4307943255671</v>
@@ -6758,22 +6758,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043086</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>890.893515694255</v>
+        <v>852.4895006216354</v>
       </c>
       <c r="C34" t="n">
-        <v>743.0230756686125</v>
+        <v>679.9277891048604</v>
       </c>
       <c r="D34" t="n">
-        <v>577.1450828701352</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E34" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M34" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N34" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T34" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V34" t="n">
-        <v>1408.311674774551</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W34" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X34" t="n">
-        <v>890.893515694255</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y34" t="n">
-        <v>890.893515694255</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1262.647922226049</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C35" t="n">
-        <v>1262.647922226049</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D35" t="n">
-        <v>1262.647922226049</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E35" t="n">
-        <v>828.8731773843442</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F35" t="n">
-        <v>401.005747793552</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
@@ -6955,7 +6955,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W35" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X35" t="n">
-        <v>1688.947492710957</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y35" t="n">
-        <v>1688.947492710957</v>
+        <v>2148.556325916849</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>663.4738450083632</v>
+        <v>941.8604769596211</v>
       </c>
       <c r="C37" t="n">
-        <v>663.4738450083632</v>
+        <v>769.298765442846</v>
       </c>
       <c r="D37" t="n">
-        <v>497.5958522098859</v>
+        <v>603.4207726443688</v>
       </c>
       <c r="E37" t="n">
-        <v>407.3870791208724</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F37" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>326.783117436994</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M37" t="n">
-        <v>897.93453696322</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N37" t="n">
-        <v>1467.692251924754</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498297</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774551</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X37" t="n">
-        <v>890.893515694255</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083632</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1344.758510807007</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
         <v>1344.758510807007</v>
@@ -7171,25 +7171,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867021</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X38" t="n">
-        <v>2179.344204992262</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>1771.058081291915</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.196554659879</v>
+        <v>864.4553742723976</v>
       </c>
       <c r="C40" t="n">
-        <v>856.6348431431041</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7568503446269</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E40" t="n">
-        <v>520.9988465953642</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F40" t="n">
-        <v>344.2917925571204</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G40" t="n">
         <v>179.5506121696388</v>
@@ -7335,22 +7335,22 @@
         <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1019.75145377609</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>1150.35584611462</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N40" t="n">
-        <v>1277.854757918509</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O40" t="n">
-        <v>1815.289888492053</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2263.565838640078</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U40" t="n">
-        <v>1965.853003145054</v>
+        <v>2081.940945496479</v>
       </c>
       <c r="V40" t="n">
-        <v>1965.853003145054</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W40" t="n">
-        <v>1693.826598731346</v>
+        <v>1529.085418343864</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.434844064758</v>
+        <v>1283.693663677277</v>
       </c>
       <c r="Y40" t="n">
-        <v>1221.015173378866</v>
+        <v>1056.273992991385</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>446.7092428694776</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="C41" t="n">
-        <v>446.7092428694776</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586986</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W41" t="n">
-        <v>1486.402314586986</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="X41" t="n">
-        <v>1067.259851166297</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="Y41" t="n">
-        <v>658.9737274659507</v>
+        <v>1377.653252150329</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
         <v>341.0245550495863</v>
@@ -7481,13 +7481,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7496,16 +7496,16 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
         <v>1488.088567599445</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.196554659879</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>856.6348431431041</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D43" t="n">
-        <v>690.7568503446269</v>
+        <v>450.2037719866647</v>
       </c>
       <c r="E43" t="n">
-        <v>520.9988465953642</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F43" t="n">
-        <v>344.2917925571204</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G43" t="n">
         <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>326.783117436994</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>910.9641928553087</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N43" t="n">
-        <v>1288.378132818745</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O43" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1973.653814855378</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1965.853003145054</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1693.826598731346</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.434844064758</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>1221.015173378866</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>1118.582560671843</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>1118.582560671843</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>682.6727758462875</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>682.6727758462875</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895473</v>
+        <v>682.6727758462875</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895473</v>
+        <v>283.1700845257647</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
@@ -7666,7 +7666,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7678,22 +7678,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>1526.86868437219</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>1118.582560671843</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U45" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851416</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>443.5200532683665</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>450.2037719866647</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092375</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827552</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789086</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7842,16 +7842,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.065385582259228</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4638205339662728</v>
+        <v>6.30987286752196</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>106.4970253946631</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.923123287322519</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8619,19 +8619,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2.509981579681935</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>93.07541273182969</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.06085321698743</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>27.44162713805633</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.725804868272494</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8853,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>141.4680432173438</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9090,7 +9090,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>141.4680432173438</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>458.1582657371569</v>
@@ -9099,7 +9099,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>141.4680432173448</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>45.75904403825007</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>177.1920849464592</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,25 +9798,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.27619576520601</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,22 +10275,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>410.7470639734277</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>192.4544649334021</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>177.1920849464598</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>444.9969971592894</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>192.4544649334018</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>10.62967161639926</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N43" t="n">
-        <v>252.4394223833803</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>156.7304232042864</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>264.6463123855408</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>302.9526642375981</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>314.6771375459504</v>
       </c>
       <c r="D8" t="n">
-        <v>428.677033886573</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>426.1744484710275</v>
+        <v>324.5478889874886</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3731502167427</v>
+        <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>286.1292424873029</v>
+        <v>282.3584801445919</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.5714639696243</v>
+        <v>74.18125311796777</v>
       </c>
       <c r="T8" t="n">
-        <v>217.819703146337</v>
+        <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6292234284552</v>
+        <v>137.5158574008325</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -23086,10 +23086,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>411.6884898642221</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>400.9407135410828</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23099,25 +23099,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.0908620689655</v>
+        <v>1.006951526504963</v>
       </c>
       <c r="C9" t="n">
-        <v>102.1293476294639</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>84.52551230889576</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>38.38933637062632</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,19 +23150,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.45196651563608</v>
+        <v>59.05530966656965</v>
       </c>
       <c r="T9" t="n">
-        <v>128.8537753079323</v>
+        <v>128.0597233353587</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5728047847957</v>
+        <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>193.8637938363604</v>
+        <v>78.04243221616008</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>136.1858937407904</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>70.81652198933668</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>51.75218385914675</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -23190,16 +23190,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>83.61250366822624</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9305612960722</v>
+        <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
-        <v>138.4604679489429</v>
+        <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>87.62897272389382</v>
+        <v>82.66219243742792</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>17.72522696250731</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6916348364108</v>
+        <v>35.60310718843914</v>
       </c>
       <c r="T10" t="n">
-        <v>243.400138899798</v>
+        <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>272.3858599483459</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>280.8234041260135</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -23266,16 +23266,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>400.3166567922958</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>210.0505531241096</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>45.87173929355994</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>93.63231361822085</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>213.6491484197645</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23509,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>14.53996078201387</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>45.87173929355994</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>99.00273129754001</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>81.01552372983349</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>83.47924984970608</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>56.59250992092888</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>149.0473946475632</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>210.9049267645084</v>
+        <v>264.2552058849429</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>146.3469376859581</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2.360256329768163</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>95.07799832448967</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>294.1932910344036</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>51.21767547602003</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>99.00273129754012</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>265.8246500429653</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>83.88014333065217</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>3.364664575149874</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>113.2693808714461</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>209.8471281787983</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>265.3352856806301</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>131.6676598093636</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>99.002731297541</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>13.42442768340351</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>248.0358572185182</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>101.4231659571914</v>
       </c>
       <c r="C34" t="n">
-        <v>24.44435877622121</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>21.7844022286327</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>312.270796066695</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,16 +25314,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.7537383536467</v>
+        <v>86.46271692325558</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>235.7775000555625</v>
+        <v>305.396991767981</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>267.8799620385243</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>6.065121536756237</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>211.8947350295503</v>
+        <v>198.9770285108444</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>75.05377899077583</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>276.3631494550537</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>33.42043829448679</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>265.3352856806301</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779064</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>75.05377899077583</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2565.02620724775</v>
+        <v>92332.87122888543</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>408396.2637219842</v>
+        <v>408396.2637219843</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>408396.2637219842</v>
+        <v>408396.2637219844</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>408396.2637219842</v>
+        <v>408396.2637219843</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>408396.2637219843</v>
+        <v>408396.2637219842</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>408396.2637219842</v>
+        <v>408396.2637219843</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>408396.2637219842</v>
+        <v>408396.2637219843</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>408396.2637219842</v>
+        <v>408396.2637219843</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>967.2836134934159</v>
+        <v>34693.90071497226</v>
       </c>
       <c r="E2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
       <c r="F2" t="n">
         <v>157297.5713008174</v>
@@ -26340,7 +26340,7 @@
         <v>157297.5713008174</v>
       </c>
       <c r="K2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
       <c r="L2" t="n">
         <v>157297.5713008174</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3293.504824504879</v>
+        <v>117708.4675730575</v>
       </c>
       <c r="E3" t="n">
-        <v>548022.1493403781</v>
+        <v>439858.2450180446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>825.7217692837759</v>
+        <v>30139.06600310191</v>
       </c>
       <c r="M3" t="n">
-        <v>146237.7281609485</v>
+        <v>117374.5815597481</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>149.6462977554023</v>
+        <v>5701.383234911869</v>
       </c>
       <c r="E4" t="n">
-        <v>15620.1048454346</v>
+        <v>15620.10484543461</v>
       </c>
       <c r="F4" t="n">
         <v>15620.10484543461</v>
       </c>
       <c r="G4" t="n">
-        <v>15620.1048454346</v>
+        <v>15620.10484543461</v>
       </c>
       <c r="H4" t="n">
-        <v>15620.1048454346</v>
+        <v>15620.10484543461</v>
       </c>
       <c r="I4" t="n">
         <v>15620.10484543461</v>
@@ -26444,22 +26444,22 @@
         <v>15620.10484543461</v>
       </c>
       <c r="K4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="L4" t="n">
         <v>15620.10484543461</v>
       </c>
       <c r="M4" t="n">
-        <v>15620.1048454346</v>
+        <v>15620.10484543461</v>
       </c>
       <c r="N4" t="n">
         <v>15620.1048454346</v>
       </c>
       <c r="O4" t="n">
-        <v>15620.1048454346</v>
+        <v>15620.10484543461</v>
       </c>
       <c r="P4" t="n">
-        <v>15620.1048454346</v>
+        <v>15620.10484543461</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33884.00183384596</v>
+        <v>42922.56227239234</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963782</v>
@@ -26499,19 +26499,19 @@
         <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-36359.86934261283</v>
+        <v>-132805.4111615406</v>
       </c>
       <c r="E6" t="n">
-        <v>-452395.7640946331</v>
+        <v>-344785.7402155217</v>
       </c>
       <c r="F6" t="n">
-        <v>95626.38524574495</v>
+        <v>95072.50480252304</v>
       </c>
       <c r="G6" t="n">
-        <v>95626.38524574495</v>
+        <v>95072.50480252306</v>
       </c>
       <c r="H6" t="n">
-        <v>95626.38524574495</v>
+        <v>95072.50480252301</v>
       </c>
       <c r="I6" t="n">
-        <v>95626.385245745</v>
+        <v>95072.50480252304</v>
       </c>
       <c r="J6" t="n">
-        <v>95626.385245745</v>
+        <v>95072.50480252304</v>
       </c>
       <c r="K6" t="n">
-        <v>95626.38524574495</v>
+        <v>95072.50480252299</v>
       </c>
       <c r="L6" t="n">
-        <v>94800.66347646117</v>
+        <v>64933.4387994211</v>
       </c>
       <c r="M6" t="n">
-        <v>-50611.34291520348</v>
+        <v>-22302.07675722514</v>
       </c>
       <c r="N6" t="n">
-        <v>95626.38524574498</v>
+        <v>95072.50480252302</v>
       </c>
       <c r="O6" t="n">
-        <v>95626.38524574498</v>
+        <v>95072.50480252304</v>
       </c>
       <c r="P6" t="n">
-        <v>95626.38524574501</v>
+        <v>95072.50480252304</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.662332998740293</v>
+        <v>94.25048217480446</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
@@ -26795,19 +26795,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.262548922260277</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619342</v>
@@ -26819,19 +26819,19 @@
         <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.662332998740293</v>
+        <v>94.25048217480446</v>
       </c>
       <c r="E3" t="n">
-        <v>464.0395950944809</v>
+        <v>372.4514459184167</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.262548922260277</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="E4" t="n">
-        <v>586.8193454396738</v>
+        <v>470.9979838194737</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.262548922260277</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="M4" t="n">
-        <v>586.8193454396738</v>
+        <v>470.9979838194737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.262548922260277</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="M4" t="n">
-        <v>586.8193454396738</v>
+        <v>470.9979838194737</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01070284622609162</v>
+        <v>0.3788964107529825</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1096105239129608</v>
+        <v>3.880372866623983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>14.60740387555437</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9083906948817446</v>
+        <v>32.15835924214598</v>
       </c>
       <c r="K8" t="n">
-        <v>1.361442175632203</v>
+        <v>48.19704430931973</v>
       </c>
       <c r="L8" t="n">
-        <v>1.688989405823955</v>
+        <v>59.79269533990134</v>
       </c>
       <c r="M8" t="n">
-        <v>1.879326147397212</v>
+        <v>66.53089438462968</v>
       </c>
       <c r="N8" t="n">
-        <v>1.909735609237095</v>
+        <v>67.6074338116816</v>
       </c>
       <c r="O8" t="n">
-        <v>1.803309182076396</v>
+        <v>63.83978262725662</v>
       </c>
       <c r="P8" t="n">
-        <v>1.539082665869759</v>
+        <v>54.48577748679237</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.155786985397852</v>
+        <v>40.91654977670117</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6723126642497284</v>
+        <v>23.80085166196206</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2438911083770631</v>
+        <v>8.634101960033597</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0468517093547161</v>
+        <v>1.658619038071182</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.03031171286023859</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.2027274522250511</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05530620059647288</v>
+        <v>1.957920393857731</v>
       </c>
       <c r="I9" t="n">
-        <v>0.19716334000105</v>
+        <v>6.979870613888822</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5410312747723081</v>
+        <v>19.15329845780626</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9247086227794469</v>
+        <v>32.73603775688468</v>
       </c>
       <c r="L9" t="n">
-        <v>1.243384859458851</v>
+        <v>44.01764264211033</v>
       </c>
       <c r="M9" t="n">
-        <v>1.450971484313459</v>
+        <v>51.36651278526843</v>
       </c>
       <c r="N9" t="n">
-        <v>1.489374382002836</v>
+        <v>52.72603153286538</v>
       </c>
       <c r="O9" t="n">
-        <v>1.362486586628912</v>
+        <v>48.2340179861945</v>
       </c>
       <c r="P9" t="n">
-        <v>1.093515604709008</v>
+        <v>38.71205182006261</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7309862225975235</v>
+        <v>25.87798144542933</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3555470370770528</v>
+        <v>12.58688514779748</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1063677382043881</v>
+        <v>3.7655735095311</v>
       </c>
       <c r="T9" t="n">
-        <v>0.02308192477209743</v>
+        <v>0.8171338973457101</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.01333733238322705</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.1699598858889916</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04268461758636079</v>
+        <v>1.511097894540308</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1443770091775884</v>
+        <v>5.111157295643495</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3394256349377582</v>
+        <v>12.01616393235171</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5577805856377201</v>
+        <v>19.74624856055739</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7137671124819468</v>
+        <v>25.26839976207791</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7525673425783419</v>
+        <v>26.64198465803529</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7346729732425471</v>
+        <v>26.00849781063089</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6785894010559685</v>
+        <v>24.02305732547312</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5806504625449318</v>
+        <v>20.55587565333767</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4020122828097842</v>
+        <v>14.23182280839547</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2158671969142538</v>
+        <v>7.642014505517749</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08366708784565802</v>
+        <v>2.961937284083608</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02051305753127766</v>
+        <v>0.7261922397075095</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.009270539230308645</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32569,7 +32569,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -33040,7 +33040,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917233</v>
@@ -33496,7 +33496,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -33754,7 +33754,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -33973,7 +33973,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -34210,7 +34210,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34447,7 +34447,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -35169,34 +35169,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.19478239642297</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9083906948817464</v>
+        <v>32.15835924214598</v>
       </c>
       <c r="K8" t="n">
-        <v>1.361442175632203</v>
+        <v>48.19704430931974</v>
       </c>
       <c r="L8" t="n">
-        <v>1.688989405823955</v>
+        <v>59.79269533990134</v>
       </c>
       <c r="M8" t="n">
-        <v>1.879326147397212</v>
+        <v>66.53089438462968</v>
       </c>
       <c r="N8" t="n">
-        <v>1.909735609237095</v>
+        <v>67.6074338116816</v>
       </c>
       <c r="O8" t="n">
-        <v>1.803309182076395</v>
+        <v>63.83978262725662</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53908266586976</v>
+        <v>54.48577748679236</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.155786985397851</v>
+        <v>40.91654977670117</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6723126642497288</v>
+        <v>23.80085166196204</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.262548922260278</v>
+        <v>33.30681320020962</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5410312747723083</v>
+        <v>19.15329845780626</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9247086227794465</v>
+        <v>32.73603775688468</v>
       </c>
       <c r="L9" t="n">
-        <v>1.243384859458851</v>
+        <v>44.01764264211032</v>
       </c>
       <c r="M9" t="n">
-        <v>1.45097148431346</v>
+        <v>51.36651278526841</v>
       </c>
       <c r="N9" t="n">
-        <v>1.489374382002836</v>
+        <v>52.72603153286536</v>
       </c>
       <c r="O9" t="n">
-        <v>1.362486586628911</v>
+        <v>48.23401798619449</v>
       </c>
       <c r="P9" t="n">
-        <v>1.093515604709008</v>
+        <v>38.71205182006258</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.194806756563796</v>
+        <v>32.18785431295129</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3555470370770522</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.262548922260278</v>
+        <v>99.47039137143237</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5577805856377198</v>
+        <v>19.74624856055738</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7137671124819471</v>
+        <v>25.26839976207791</v>
       </c>
       <c r="M10" t="n">
-        <v>3.262548922260277</v>
+        <v>26.64198465803528</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7346729732425477</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6785894010559677</v>
+        <v>119.0839105424606</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5806504625449325</v>
+        <v>47.99750279139403</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.127817151082278</v>
+        <v>14.23182280839546</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>260.4234789221537</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35652,16 +35652,16 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
         <v>269.7982739184536</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916793</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
@@ -35737,19 +35737,19 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>266.5900650540084</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>590.0818943619341</v>
@@ -35819,13 +35819,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>260.4234789221546</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35886,13 +35886,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35901,7 +35901,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562351</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -35980,7 +35980,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>170.8810658749146</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36123,10 +36123,10 @@
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062841</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36135,7 +36135,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36360,13 +36360,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36518,25 +36518,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
-        <v>139.7481869072826</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36594,13 +36594,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36615,7 +36615,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36831,7 +36831,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
@@ -36840,13 +36840,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
@@ -36995,22 +36995,22 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>529.7024996782375</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>294.2413903654056</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -37077,7 +37077,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>296.1475206512696</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37308,22 +37308,22 @@
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M37" t="n">
-        <v>576.9206257840667</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37545,13 +37545,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37560,7 +37560,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37621,7 +37621,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37703,25 +37703,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>547.5562458447059</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>324.378093558179</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485105</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.10166275847587</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37794,7 +37794,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
         <v>261.0845059811313</v>
@@ -37876,7 +37876,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N43" t="n">
-        <v>381.2262019832688</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,7 +38034,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38116,10 +38116,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>281.852445040951</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>383.6017480903506</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
